--- a/data/trans_orig/OT2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD26984-7292-4356-88D8-6433F1E62BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13AE7D0-28DA-48B6-BB18-2CDF097D9114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7E4B190-75C9-4394-9E9D-943F3AF73F40}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24F997BD-1ACE-4EC5-AE8D-DE111ABDE64B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="160">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -318,6 +318,9 @@
     <t>41,36%</t>
   </si>
   <si>
+    <t>81,66%</t>
+  </si>
+  <si>
     <t>76,22%</t>
   </si>
   <si>
@@ -327,10 +330,10 @@
     <t>56,64%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -342,31 +345,31 @@
     <t>20,65%</t>
   </si>
   <si>
-    <t>79,57%</t>
+    <t>80,81%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>55,46%</t>
+    <t>46,75%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>79,05%</t>
+    <t>79,23%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>45,73%</t>
+    <t>44,95%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>77,98%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>23,78%</t>
@@ -378,7 +381,7 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>55,16%</t>
+    <t>55,58%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -405,7 +408,7 @@
     <t>73,39%</t>
   </si>
   <si>
-    <t>19,34%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>55,93%</t>
@@ -414,31 +417,31 @@
     <t>26,61%</t>
   </si>
   <si>
-    <t>80,66%</t>
+    <t>93,67%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>45,61%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>85,33%</t>
@@ -447,7 +450,7 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -456,61 +459,64 @@
     <t>4,57%</t>
   </si>
   <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>33,0%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>62,99%</t>
+    <t>58,24%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9100F46-8C90-4063-B0CA-2B92702A64AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C297257-1F92-4918-8FF2-D219A74097EE}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3451,7 +3457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58520997-BF26-4201-B103-1994D97FDD20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BFF668-C7F5-42D5-8B46-13C15F44FAA1}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4401,7 +4407,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4410,10 +4416,10 @@
         <v>3120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -4425,13 +4431,13 @@
         <v>5289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4458,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4482,7 +4488,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,7 +4509,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4533,7 +4539,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4560,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4584,7 +4590,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4605,13 @@
         <v>1083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4629,13 +4635,13 @@
         <v>1083</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4656,13 @@
         <v>1019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4680,13 +4686,13 @@
         <v>1019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4707,13 @@
         <v>974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4716,13 +4722,13 @@
         <v>973</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4731,13 +4737,13 @@
         <v>1948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4811,7 @@
         <v>2016</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
@@ -4835,7 +4841,7 @@
         <v>2016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>20</v>
@@ -4856,7 +4862,7 @@
         <v>1084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
@@ -4886,13 +4892,13 @@
         <v>1084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4994,13 @@
         <v>1347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,7 +5236,7 @@
         <v>1052</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
@@ -5245,10 +5251,10 @@
         <v>3683</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>21</v>
@@ -5536,7 +5542,7 @@
         <v>1336</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -5551,13 +5557,13 @@
         <v>1336</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5631,13 @@
         <v>8717</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -5640,13 +5646,13 @@
         <v>7165</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M44" s="7">
         <v>15</v>
@@ -5655,13 +5661,13 @@
         <v>15882</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5682,13 @@
         <v>1084</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -5697,7 +5703,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -5706,13 +5712,13 @@
         <v>1084</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,7 +5739,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -5748,7 +5754,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -5763,7 +5769,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,7 +5790,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -5793,13 +5799,13 @@
         <v>1347</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -5808,13 +5814,13 @@
         <v>1347</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5835,13 @@
         <v>1083</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -5850,7 +5856,7 @@
         <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -5859,13 +5865,13 @@
         <v>1083</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5886,13 @@
         <v>1019</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -5901,7 +5907,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -5910,13 +5916,13 @@
         <v>1019</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5937,13 @@
         <v>974</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -5946,13 +5952,13 @@
         <v>2309</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -5961,13 +5967,13 @@
         <v>3283</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13AE7D0-28DA-48B6-BB18-2CDF097D9114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4842DB-6830-41F2-B87C-5DBA378AC5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24F997BD-1ACE-4EC5-AE8D-DE111ABDE64B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9964CC88-05C7-493C-9708-C689EDE73105}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="161">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -93,7 +93,7 @@
     <t>Hernia de Hiato</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>70,34%</t>
@@ -117,7 +117,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -141,7 +141,7 @@
     <t>24,81%</t>
   </si>
   <si>
-    <t>77,53%</t>
+    <t>74,9%</t>
   </si>
   <si>
     <t>49,86%</t>
@@ -159,7 +159,7 @@
     <t>25,07%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>65,59%</t>
@@ -186,6 +186,9 @@
     <t>25,71%</t>
   </si>
   <si>
+    <t>76,42%</t>
+  </si>
+  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -210,25 +213,25 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>82,88%</t>
+    <t>82,83%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -243,43 +246,43 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>63,97%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>42,23%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>50,69%</t>
+    <t>62,52%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>35,91%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>67,36%</t>
+    <t>68,08%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,51%</t>
+    <t>46,9%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,32%</t>
+    <t>41,47%</t>
   </si>
   <si>
     <t>34,3%</t>
@@ -291,22 +294,22 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>61,12%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -330,10 +333,10 @@
     <t>56,64%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -351,7 +354,7 @@
     <t>11,6%</t>
   </si>
   <si>
-    <t>46,75%</t>
+    <t>48,69%</t>
   </si>
   <si>
     <t>19,42%</t>
@@ -363,7 +366,7 @@
     <t>10,91%</t>
   </si>
   <si>
-    <t>44,95%</t>
+    <t>46,04%</t>
   </si>
   <si>
     <t>18,57%</t>
@@ -381,7 +384,7 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>55,58%</t>
+    <t>54,63%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -399,7 +402,7 @@
     <t>30,29%</t>
   </si>
   <si>
-    <t>82,38%</t>
+    <t>80,71%</t>
   </si>
   <si>
     <t>44,07%</t>
@@ -423,34 +426,34 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -459,7 +462,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -471,52 +474,52 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>47,9%</t>
+    <t>48,26%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>41,88%</t>
+    <t>34,21%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>22,11%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>32,01%</t>
+    <t>34,59%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>58,24%</t>
+    <t>55,74%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C297257-1F92-4918-8FF2-D219A74097EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2A2662-D300-4B06-B04F-5C81654BB6BA}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,7 +2512,7 @@
         <v>20</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2619,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -2658,7 +2661,7 @@
         <v>985</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>20</v>
@@ -2847,7 +2850,7 @@
         <v>902</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>20</v>
@@ -2862,7 +2865,7 @@
         <v>902</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>20</v>
@@ -2898,7 +2901,7 @@
         <v>1040</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
@@ -2913,7 +2916,7 @@
         <v>1039</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>20</v>
@@ -3038,13 +3041,13 @@
         <v>3009</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3053,13 +3056,13 @@
         <v>3336</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -3068,13 +3071,13 @@
         <v>6345</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,7 +3098,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3110,7 +3113,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3125,7 +3128,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3149,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3155,13 +3158,13 @@
         <v>2006</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3170,13 +3173,13 @@
         <v>2006</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3200,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3206,13 +3209,13 @@
         <v>1045</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -3221,13 +3224,13 @@
         <v>1045</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3245,13 @@
         <v>1054</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -3257,13 +3260,13 @@
         <v>902</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -3272,13 +3275,13 @@
         <v>1956</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3296,13 @@
         <v>2121</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -3308,13 +3311,13 @@
         <v>1040</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M49" s="7">
         <v>3</v>
@@ -3323,13 +3326,13 @@
         <v>3161</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3353,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3365,7 +3368,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3380,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3439,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BFF668-C7F5-42D5-8B46-13C15F44FAA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52FF99-FA6E-4B5F-8965-30945012BE6E}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3474,7 +3477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3614,7 +3617,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>25</v>
@@ -4009,7 +4012,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -4024,7 +4027,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>25</v>
@@ -4401,13 +4404,13 @@
         <v>2170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4416,10 +4419,10 @@
         <v>3120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -4431,13 +4434,13 @@
         <v>5289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4461,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4488,7 +4491,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,7 +4512,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4539,7 +4542,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4563,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4590,7 +4593,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4608,13 @@
         <v>1083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4635,13 +4638,13 @@
         <v>1083</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4659,13 @@
         <v>1019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4686,13 +4689,13 @@
         <v>1019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4710,13 @@
         <v>974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4722,13 +4725,13 @@
         <v>973</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4737,13 +4740,13 @@
         <v>1948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +4814,7 @@
         <v>2016</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
@@ -4841,7 +4844,7 @@
         <v>2016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>20</v>
@@ -4862,7 +4865,7 @@
         <v>1084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
@@ -4892,13 +4895,13 @@
         <v>1084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4997,13 @@
         <v>1347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,7 +5212,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -5224,7 +5227,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>25</v>
@@ -5236,7 +5239,7 @@
         <v>1052</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
@@ -5251,10 +5254,10 @@
         <v>3683</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>21</v>
@@ -5542,7 +5545,7 @@
         <v>1336</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -5557,13 +5560,13 @@
         <v>1336</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5634,13 @@
         <v>8717</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -5646,13 +5649,13 @@
         <v>7165</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M44" s="7">
         <v>15</v>
@@ -5661,13 +5664,13 @@
         <v>15882</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5685,13 @@
         <v>1084</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -5703,7 +5706,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -5712,13 +5715,13 @@
         <v>1084</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,7 +5742,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -5754,7 +5757,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -5769,7 +5772,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,7 +5793,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -5799,13 +5802,13 @@
         <v>1347</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -5814,13 +5817,13 @@
         <v>1347</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5838,13 @@
         <v>1083</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -5856,7 +5859,7 @@
         <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -5865,13 +5868,13 @@
         <v>1083</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5889,13 @@
         <v>1019</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -5907,7 +5910,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -5916,13 +5919,13 @@
         <v>1019</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5940,13 @@
         <v>974</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -5952,13 +5955,13 @@
         <v>2309</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -5967,13 +5970,13 @@
         <v>3283</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,7 +6032,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/OT2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4842DB-6830-41F2-B87C-5DBA378AC5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F25CB2-4DA9-4C62-B46E-B9F1C22043A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9964CC88-05C7-493C-9708-C689EDE73105}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94255C2B-7F93-4B9E-96D4-7F990148F1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="158">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -141,7 +141,7 @@
     <t>24,81%</t>
   </si>
   <si>
-    <t>74,9%</t>
+    <t>77,53%</t>
   </si>
   <si>
     <t>49,86%</t>
@@ -186,9 +186,6 @@
     <t>25,71%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -213,25 +210,25 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>82,83%</t>
+    <t>82,88%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -246,43 +243,43 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>61,88%</t>
+    <t>63,97%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>42,23%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>62,52%</t>
+    <t>50,69%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>35,91%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>68,08%</t>
+    <t>67,36%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>46,51%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,47%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>34,3%</t>
@@ -294,16 +291,16 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>50,73%</t>
+    <t>61,12%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -321,9 +318,6 @@
     <t>41,36%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
     <t>76,22%</t>
   </si>
   <si>
@@ -333,10 +327,10 @@
     <t>56,64%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -348,31 +342,31 @@
     <t>20,65%</t>
   </si>
   <si>
-    <t>80,81%</t>
+    <t>79,57%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>48,69%</t>
+    <t>55,46%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>79,23%</t>
+    <t>79,05%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>46,04%</t>
+    <t>45,73%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>78,25%</t>
+    <t>77,98%</t>
   </si>
   <si>
     <t>23,78%</t>
@@ -384,7 +378,7 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>54,63%</t>
+    <t>55,16%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -402,7 +396,7 @@
     <t>30,29%</t>
   </si>
   <si>
-    <t>80,71%</t>
+    <t>82,38%</t>
   </si>
   <si>
     <t>44,07%</t>
@@ -411,7 +405,7 @@
     <t>73,39%</t>
   </si>
   <si>
-    <t>6,33%</t>
+    <t>19,34%</t>
   </si>
   <si>
     <t>55,93%</t>
@@ -420,40 +414,40 @@
     <t>26,61%</t>
   </si>
   <si>
-    <t>93,67%</t>
+    <t>80,66%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>39,94%</t>
+    <t>38,68%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -462,7 +456,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>22,51%</t>
+    <t>23,16%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -474,52 +468,49 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>56,77%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>34,21%</t>
+    <t>33,56%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>22,11%</t>
+    <t>21,43%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>34,59%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>55,74%</t>
+    <t>62,99%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2A2662-D300-4B06-B04F-5C81654BB6BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF98DE7-43F7-4DAA-9332-66AF438E29FF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2512,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2610,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -2661,7 +2652,7 @@
         <v>985</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>20</v>
@@ -2850,7 +2841,7 @@
         <v>902</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>20</v>
@@ -2865,7 +2856,7 @@
         <v>902</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>20</v>
@@ -2901,7 +2892,7 @@
         <v>1040</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
@@ -2916,7 +2907,7 @@
         <v>1039</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>20</v>
@@ -3041,13 +3032,13 @@
         <v>3009</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3056,13 +3047,13 @@
         <v>3336</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -3071,13 +3062,13 @@
         <v>6345</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,37 +3089,37 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="7" t="s">
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3140,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3158,13 +3149,13 @@
         <v>2006</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3173,13 +3164,13 @@
         <v>2006</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3191,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3209,13 +3200,13 @@
         <v>1045</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -3224,13 +3215,13 @@
         <v>1045</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3236,13 @@
         <v>1054</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -3260,13 +3251,13 @@
         <v>902</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -3275,13 +3266,13 @@
         <v>1956</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3287,13 @@
         <v>2121</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -3311,13 +3302,13 @@
         <v>1040</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M49" s="7">
         <v>3</v>
@@ -3326,13 +3317,13 @@
         <v>3161</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,37 +3344,37 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3430,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3460,7 +3451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52FF99-FA6E-4B5F-8965-30945012BE6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAD92F-0C01-4E99-BF1D-3FF16EB41CEC}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3477,7 +3468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3617,7 +3608,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>25</v>
@@ -4012,7 +4003,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -4027,7 +4018,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>25</v>
@@ -4404,13 +4395,13 @@
         <v>2170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4419,10 +4410,10 @@
         <v>3120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -4434,13 +4425,13 @@
         <v>5289</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4452,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4491,7 +4482,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,7 +4503,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4542,7 +4533,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4554,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4593,7 +4584,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4599,13 @@
         <v>1083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4638,13 +4629,13 @@
         <v>1083</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4650,13 @@
         <v>1019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4689,13 +4680,13 @@
         <v>1019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4701,13 @@
         <v>974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4725,13 +4716,13 @@
         <v>973</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4740,13 +4731,13 @@
         <v>1948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4805,7 @@
         <v>2016</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
@@ -4844,7 +4835,7 @@
         <v>2016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>20</v>
@@ -4865,7 +4856,7 @@
         <v>1084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
@@ -4895,13 +4886,13 @@
         <v>1084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4988,13 @@
         <v>1347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5203,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -5227,7 +5218,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>25</v>
@@ -5239,7 +5230,7 @@
         <v>1052</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
@@ -5254,10 +5245,10 @@
         <v>3683</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>21</v>
@@ -5545,7 +5536,7 @@
         <v>1336</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -5560,13 +5551,13 @@
         <v>1336</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5625,13 @@
         <v>8717</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -5649,13 +5640,13 @@
         <v>7165</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M44" s="7">
         <v>15</v>
@@ -5664,13 +5655,13 @@
         <v>15882</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,28 +5676,28 @@
         <v>1084</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -5715,13 +5706,13 @@
         <v>1084</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,7 +5733,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -5757,7 +5748,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -5772,7 +5763,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,7 +5784,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -5802,13 +5793,13 @@
         <v>1347</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -5817,13 +5808,13 @@
         <v>1347</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,28 +5829,28 @@
         <v>1083</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -5868,13 +5859,13 @@
         <v>1083</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5880,13 @@
         <v>1019</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -5910,7 +5901,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -5919,13 +5910,13 @@
         <v>1019</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5931,13 @@
         <v>974</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -5955,13 +5946,13 @@
         <v>2309</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -5970,13 +5961,13 @@
         <v>3283</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,7 +6023,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/OT2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F25CB2-4DA9-4C62-B46E-B9F1C22043A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6B535B0-17D9-4BFA-826C-C8CE41920536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94255C2B-7F93-4B9E-96D4-7F990148F1A9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A9584F59-50C0-41EB-B2DE-3510CB572023}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="158">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -75,12 +75,30 @@
     <t>—%</t>
   </si>
   <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
     <t>Obesidad morbida</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>Glaucoma</t>
   </si>
   <si>
+    <t>29,66%</t>
+  </si>
+  <si>
     <t>Parkinson</t>
   </si>
   <si>
@@ -93,27 +111,6 @@
     <t>Hernia de Hiato</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -159,7 +156,7 @@
     <t>25,07%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>65,59%</t>
@@ -315,6 +312,12 @@
     <t>55,59%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>41,36%</t>
   </si>
   <si>
@@ -331,9 +334,6 @@
   </si>
   <si>
     <t>88,67%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -922,8 +922,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF98DE7-43F7-4DAA-9332-66AF438E29FF}">
-  <dimension ref="A1:Q52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE4F96-6663-4059-AC17-03253A6634F4}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1053,36 +1053,40 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2271</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2271</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1100,34 +1104,38 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1143,36 +1151,40 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>958</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>958</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1190,34 +1202,38 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1235,34 +1251,38 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1280,34 +1300,38 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1325,28 +1349,32 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1368,35 +1396,39 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3229</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3229</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1404,64 +1436,68 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>2271</v>
+        <v>1065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>2271</v>
+        <v>1064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1470,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1485,81 +1521,85 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>958</v>
+        <v>1048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>958</v>
+        <v>1048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1568,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -1583,32 +1623,34 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1054</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1617,47 +1659,49 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1059</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1666,47 +1710,49 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1715,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1730,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,106 +1791,108 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2113</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>3229</v>
+        <v>2113</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>3229</v>
+        <v>4226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>1064</v>
+        <v>2024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1853,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1868,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1883,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1904,115 +1952,115 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1045</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2021,49 +2069,49 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2072,50 +2120,50 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
@@ -2123,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2138,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,72 +2201,72 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>2113</v>
+        <v>3085</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>2113</v>
+        <v>1045</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
       </c>
       <c r="N27" s="7">
-        <v>4226</v>
+        <v>4130</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2023</v>
+        <v>986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2227,34 +2275,34 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>2024</v>
+        <v>985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2263,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2278,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2293,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2314,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2329,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2344,19 +2392,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2365,49 +2413,49 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2416,145 +2464,145 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="7">
-        <v>1062</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>1062</v>
+        <v>1039</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,108 +2611,108 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>986</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1942</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="7">
         <v>3</v>
       </c>
-      <c r="D35" s="7">
-        <v>3085</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1045</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="7">
-        <v>4</v>
-      </c>
       <c r="N35" s="7">
-        <v>4130</v>
+        <v>2927</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>986</v>
+        <v>3009</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>3336</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="M36" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N36" s="7">
-        <v>985</v>
+        <v>6345</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -2673,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2688,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2703,19 +2751,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -2724,49 +2772,49 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -2775,64 +2823,64 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -2841,49 +2889,49 @@
         <v>902</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="M40" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>902</v>
+        <v>1956</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>2121</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -2892,34 +2940,34 @@
         <v>1040</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="M41" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>1039</v>
+        <v>3161</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -2928,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -2943,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -2958,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,472 +3021,61 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" s="7">
-        <v>986</v>
+        <v>6184</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I43" s="7">
-        <v>1942</v>
+        <v>8328</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M43" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N43" s="7">
-        <v>2927</v>
+        <v>14512</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="7">
-        <v>3</v>
-      </c>
-      <c r="D44" s="7">
-        <v>3009</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="7">
-        <v>3</v>
-      </c>
-      <c r="I44" s="7">
-        <v>3336</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M44" s="7">
-        <v>6</v>
-      </c>
-      <c r="N44" s="7">
-        <v>6345</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="7">
-        <v>2</v>
-      </c>
-      <c r="I46" s="7">
-        <v>2006</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M46" s="7">
-        <v>2</v>
-      </c>
-      <c r="N46" s="7">
-        <v>2006</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1045</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M47" s="7">
-        <v>1</v>
-      </c>
-      <c r="N47" s="7">
-        <v>1045</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1054</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="7">
-        <v>1</v>
-      </c>
-      <c r="I48" s="7">
-        <v>902</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M48" s="7">
-        <v>2</v>
-      </c>
-      <c r="N48" s="7">
-        <v>1956</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="7">
-        <v>2</v>
-      </c>
-      <c r="D49" s="7">
-        <v>2121</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="I49" s="7">
-        <v>1040</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M49" s="7">
-        <v>3</v>
-      </c>
-      <c r="N49" s="7">
-        <v>3161</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q49" s="7" t="s">
+      <c r="A44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="7">
-        <v>6</v>
-      </c>
-      <c r="D51" s="7">
-        <v>6184</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="7">
-        <v>8</v>
-      </c>
-      <c r="I51" s="7">
-        <v>8328</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="7">
-        <v>14</v>
-      </c>
-      <c r="N51" s="7">
-        <v>14512</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A44:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3451,8 +3088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAD92F-0C01-4E99-BF1D-3FF16EB41CEC}">
-  <dimension ref="A1:Q52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBA9C5C-B025-4F72-A4F3-AB4B1265270B}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3468,7 +3105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3569,55 +3206,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>845</v>
+        <v>1901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>816</v>
+        <v>2993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>1661</v>
+        <v>4894</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3626,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3641,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3656,19 +3293,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3677,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3692,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3707,19 +3344,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -3728,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3743,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3758,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3779,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3794,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3809,19 +3446,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3830,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3845,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3860,50 +3497,50 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
@@ -3911,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,108 +3563,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>845</v>
+        <v>1901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>816</v>
+        <v>2993</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>1661</v>
+        <v>4894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1056</v>
+        <v>2170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2177</v>
+        <v>3120</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>3233</v>
+        <v>5289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4036,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4051,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4066,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4087,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4102,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4117,19 +3754,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -4138,13 +3775,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4153,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4168,34 +3805,34 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4204,49 +3841,49 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4255,79 +3892,79 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,54 +3973,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>1056</v>
+        <v>5246</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2177</v>
+        <v>4093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>3233</v>
+        <v>9339</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4392,67 +4029,67 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>2170</v>
+        <v>2016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>3120</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>5289</v>
+        <v>2016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4461,34 +4098,34 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4497,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4512,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4527,85 +4164,85 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1347</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4614,49 +4251,49 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4665,79 +4302,79 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>974</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>973</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>1948</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,54 +4383,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>5246</v>
+        <v>3100</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1347</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="7">
         <v>4</v>
       </c>
-      <c r="I27" s="7">
-        <v>4093</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="7">
-        <v>9</v>
-      </c>
       <c r="N27" s="7">
-        <v>9339</v>
+        <v>4447</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4802,67 +4439,67 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>2016</v>
+        <v>2630</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>2016</v>
+        <v>3683</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4871,34 +4508,34 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -4907,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4922,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4937,19 +4574,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -4958,49 +4595,49 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -5009,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5024,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5039,19 +4676,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -5060,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5075,13 +4712,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5090,19 +4727,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -5111,43 +4748,43 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,123 +4793,123 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>3100</v>
+        <v>2630</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>1347</v>
+        <v>2388</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
       </c>
       <c r="N35" s="7">
-        <v>4447</v>
+        <v>5019</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D36" s="7">
-        <v>2630</v>
+        <v>8717</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I36" s="7">
-        <v>1052</v>
+        <v>7165</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="M36" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N36" s="7">
-        <v>3683</v>
+        <v>15882</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5281,34 +4918,34 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="M37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -5317,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5332,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5347,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -5368,64 +5005,64 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -5434,49 +5071,49 @@
         <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5485,79 +5122,79 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="M41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="H42" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="7">
-        <v>1336</v>
+        <v>2309</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="M42" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" s="7">
-        <v>1336</v>
+        <v>3283</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,472 +5203,61 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7">
-        <v>2630</v>
+        <v>12877</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I43" s="7">
-        <v>2388</v>
+        <v>10821</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M43" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N43" s="7">
-        <v>5019</v>
+        <v>23698</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="7">
-        <v>8</v>
-      </c>
-      <c r="D44" s="7">
-        <v>8717</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="7">
-        <v>7</v>
-      </c>
-      <c r="I44" s="7">
-        <v>7165</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M44" s="7">
-        <v>15</v>
-      </c>
-      <c r="N44" s="7">
-        <v>15882</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1084</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M45" s="7">
-        <v>1</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1084</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1347</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M47" s="7">
-        <v>1</v>
-      </c>
-      <c r="N47" s="7">
-        <v>1347</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1083</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M48" s="7">
-        <v>1</v>
-      </c>
-      <c r="N48" s="7">
-        <v>1083</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1019</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M49" s="7">
-        <v>1</v>
-      </c>
-      <c r="N49" s="7">
-        <v>1019</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
-        <v>974</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" s="7">
-        <v>2</v>
-      </c>
-      <c r="I50" s="7">
-        <v>2309</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M50" s="7">
-        <v>3</v>
-      </c>
-      <c r="N50" s="7">
-        <v>3283</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="7">
-        <v>12</v>
-      </c>
-      <c r="D51" s="7">
-        <v>12877</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="7">
-        <v>10</v>
-      </c>
-      <c r="I51" s="7">
-        <v>10821</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="7">
-        <v>22</v>
-      </c>
-      <c r="N51" s="7">
-        <v>23698</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>88</v>
+      <c r="A44" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A44:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
